--- a/ismt_hard/result_base.xlsx
+++ b/ismt_hard/result_base.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-20.04\home\hrcarryu\SAT-learn\ismt_hard\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{440CF311-328E-416A-88DA-ACDDF9CA8E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF8C0ED5-FC51-490F-B42F-E8445DCC809D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="477" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ismt" sheetId="2" r:id="rId1"/>
@@ -20,13 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>filename</t>
-  </si>
-  <si>
-    <t>test.smt2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -412,25 +408,22 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="41.44140625" customWidth="1"/>
-    <col min="3" max="14" width="26.44140625" customWidth="1"/>
+    <col min="2" max="2" width="41.5" customWidth="1"/>
+    <col min="3" max="14" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="B1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
         <v>1</v>
       </c>
     </row>
